--- a/04-Operadores.xlsx
+++ b/04-Operadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\Clases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C98F801-B5DE-496C-9D0E-7A75D09C4422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A9083E-0614-45E6-913E-53A91C99FD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C866D617-3FAA-4967-93F0-9F25982939D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>OPERADORES</t>
   </si>
@@ -203,19 +203,7 @@
     <t>Operador de referencia</t>
   </si>
   <si>
-    <t>J38:L38 Hace referencia a todas las celdas de J38 hasta L38</t>
-  </si>
-  <si>
-    <t>J38:L38,J39:L39 Hace referencia a las celdas que se encuentran en el rango J38 hasta L38 más las celdas en el rango J39 hasta L39</t>
-  </si>
-  <si>
-    <t>J38:L38 K38:L38 Hace referencia a la celda K38 y L38</t>
-  </si>
-  <si>
     <t>:</t>
-  </si>
-  <si>
-    <t>;</t>
   </si>
   <si>
     <t>(espacio)</t>
@@ -382,12 +370,24 @@
       <t xml:space="preserve"> que genera una referencia a celdas comunes a las dos referencias.</t>
     </r>
   </si>
+  <si>
+    <t>I33:K33 Hace referencia a todas las celdas de I33 hasta K33</t>
+  </si>
+  <si>
+    <t>I33:K33,I34:K34 Hace referencia a las celdas que se encuentran en el rango J38 hasta L38 más las celdas en el rango J39 hasta L39</t>
+  </si>
+  <si>
+    <t>I33:K34 K33:k34 Hace referencia a la celda K33 y K34</t>
+  </si>
+  <si>
+    <t>Mas Informacion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -470,6 +470,20 @@
       <name val="Victor Mono Medium"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Victor Mono Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Victor Mono Medium"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -856,100 +870,95 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -961,6 +970,79 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -970,76 +1052,16 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Énfasis1" xfId="2" builtinId="29"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -1355,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6B5E56-9E5D-4436-8F34-99138C9EF62E}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -1368,18 +1390,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1"/>
@@ -1389,15 +1411,15 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -1409,90 +1431,90 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f>200+84</f>
         <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f>19-4</f>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f>59*3</f>
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f>18/4</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>0.05</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="53">
         <f>200*5%</f>
         <v>10</v>
       </c>
@@ -1501,543 +1523,544 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f>2^3</f>
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="23" t="b">
+      <c r="D17" s="21" t="b">
         <f>10=6</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="26" t="b">
+      <c r="D18" s="24" t="b">
         <f>10&gt;6</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="23" t="b">
+      <c r="D19" s="21" t="b">
         <f>10&lt;6</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="26" t="b">
+      <c r="D20" s="24" t="b">
         <f>10&gt;=6</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="23" t="b">
+      <c r="D21" s="21" t="b">
         <f>10&lt;=6</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="29" t="b">
+      <c r="D22" s="27" t="b">
         <f>10&lt;&gt;6</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="37" t="str">
+      <c r="D28" s="35" t="str">
         <f>"Norte"&amp;"America"</f>
         <v>NorteAmerica</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
     </row>
     <row r="33" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53" t="s">
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="39">
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="37">
         <v>1</v>
       </c>
-      <c r="J33" s="40">
+      <c r="J33" s="38">
         <v>3</v>
       </c>
-      <c r="K33" s="40">
+      <c r="K33" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="39">
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="37">
         <v>6</v>
       </c>
-      <c r="J34" s="40">
+      <c r="J34" s="38">
         <v>7</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="55" t="s">
+      <c r="A35" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="64">
+        <f>SUM(I33:K33)</f>
+        <v>8</v>
+      </c>
+      <c r="J35" s="65"/>
+      <c r="K35" s="66"/>
+    </row>
+    <row r="36" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="41">
-        <f>+SUM(I33:K33)</f>
-        <v>8</v>
-      </c>
-      <c r="J35" s="42"/>
-      <c r="K35" s="43"/>
-    </row>
-    <row r="36" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="44">
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60">
         <f>SUM(I33:K33,I34:K34)</f>
         <v>23</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="46"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="62"/>
     </row>
     <row r="37" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="64">
+        <f>SUM(I33:K34 K33:K34)</f>
+        <v>6</v>
+      </c>
+      <c r="J37" s="65"/>
+      <c r="K37" s="66"/>
+    </row>
+    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A39" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="41"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="36"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="43"/>
+      <c r="F42" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="51">
+        <v>1</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="E43" s="43"/>
+      <c r="F43" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="51">
+        <v>2</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="43"/>
+      <c r="F44" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="51">
+        <v>3</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="43"/>
+      <c r="F45" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="47">
+        <v>1.7411011265922482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="51">
+        <v>4</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="51">
+        <v>5</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="51">
+        <v>6</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+    </row>
+    <row r="49" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+      <c r="A49" s="51">
+        <v>7</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="43"/>
+      <c r="F49" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="41">
-        <f>SUM(I33:K33 J33:K33)</f>
-        <v>7</v>
-      </c>
-      <c r="J37" s="42"/>
-      <c r="K37" s="43"/>
-    </row>
-    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="51"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="48"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="65">
-        <v>1</v>
-      </c>
-      <c r="B43" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="I43" s="58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="65">
-        <v>2</v>
-      </c>
-      <c r="B44" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="H44" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="60">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="65">
-        <v>3</v>
-      </c>
-      <c r="B45" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="62" t="s">
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="51">
+        <v>8</v>
+      </c>
+      <c r="B50" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="G45" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="H45" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="I45" s="61">
-        <v>1.7411011265922482</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="65">
-        <v>4</v>
-      </c>
-      <c r="B46" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="62" t="s">
+      <c r="C50" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="65">
-        <v>5</v>
-      </c>
-      <c r="B47" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="65">
-        <v>6</v>
-      </c>
-      <c r="B48" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-    </row>
-    <row r="49" spans="1:9" ht="39" x14ac:dyDescent="0.3">
-      <c r="A49" s="65">
-        <v>7</v>
-      </c>
-      <c r="B49" s="65" t="s">
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="51">
+        <v>9</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="52">
+        <v>10</v>
+      </c>
+      <c r="B52" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="65">
-        <v>8</v>
-      </c>
-      <c r="B50" s="65" t="s">
+      <c r="C52" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="65">
-        <v>9</v>
-      </c>
-      <c r="B51" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="66">
-        <v>10</v>
-      </c>
-      <c r="B52" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A31:J31"/>
+  <mergeCells count="20">
+    <mergeCell ref="F49:I49"/>
     <mergeCell ref="F42:I42"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="E36:H36"/>
@@ -2045,18 +2068,23 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="I37:K37"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A31:J31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:D34"/>
     <mergeCell ref="E33:H34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="I35:K35"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A25:G25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F49:I49" r:id="rId1" display="Mas Informacion" xr:uid="{DADAEBC3-2CE8-41D1-80E8-DE5833B14CAA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>